--- a/Client/Dev/PandaVillage/Assets/Tables/material_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/material_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01C0FF-0687-4D26-BC1C-7C19DC4B37ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16335" yWindow="8505" windowWidth="15330" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +19,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>현</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,106 +133,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>purchase_price_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리광석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리주괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copperOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copperBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>purchase_price_min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purchase_price_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양털</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리광석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리주괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fiber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copperOre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copperBar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>purchase_price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,11 +335,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -338,11 +345,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,274 +664,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>4001</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="H4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4002</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4003</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="1">
         <v>1000</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4003</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1020</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="1">
+        <v>340</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F9" s="1">
         <v>1000</v>
       </c>
-      <c r="G6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>4004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>4007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>180</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1020</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1700</v>
-      </c>
-      <c r="G8" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>4006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>4007</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>4008</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>180</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/material_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/material_data.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,70 +173,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fiber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copperOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copperBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_price_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_price</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작과 건설에 많이 사용되는 흔한 재료.</t>
+  </si>
+  <si>
+    <t>식물에서 나온 원자재.</t>
+  </si>
+  <si>
+    <t>건축이나 물품을 제작할 때 사용됩니다.</t>
+  </si>
+  <si>
+    <t>부드럽고 푹신푹신한 양털.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작과 제련 활동에 사용되는 불이 잘 붙는 돌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 용도가 다양한 유연하면서 견고한 식물 재료.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 사료로 사용되는 말린 잔디.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주괴로 제련할 수 있는 흔한 광석.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 주괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순수한 구리 주괴 하나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>구리광석</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리주괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fiber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copperOre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copperBar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_price_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +321,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -295,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -318,17 +367,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -348,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,24 +703,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I11" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -705,10 +744,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -719,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -733,8 +775,11 @@
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4000</v>
       </c>
@@ -742,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -759,8 +804,11 @@
       <c r="H3" s="3">
         <v>10</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4001</v>
       </c>
@@ -768,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -785,8 +833,11 @@
       <c r="H4" s="3">
         <v>20</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4002</v>
       </c>
@@ -794,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -811,8 +862,11 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4003</v>
       </c>
@@ -820,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -837,8 +891,11 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4004</v>
       </c>
@@ -846,9 +903,9 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="1">
@@ -863,8 +920,11 @@
       <c r="H7" s="3">
         <v>50</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4005</v>
       </c>
@@ -872,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -889,8 +949,11 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4006</v>
       </c>
@@ -898,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -915,16 +978,19 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -941,16 +1007,19 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -966,6 +1035,9 @@
       </c>
       <c r="H11" s="3">
         <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/material_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/material_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE0102-1DE0-4A61-8D2F-C83FC20F9169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="8505" windowWidth="15330" windowHeight="10305"/>
+    <workbookView xWindow="14595" yWindow="3810" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>현</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -193,14 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wood{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>copperOre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,13 +255,21 @@
   </si>
   <si>
     <t>구리광석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,11 +695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:I11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -744,10 +737,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -761,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -776,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -787,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -805,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -816,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -834,7 +827,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -863,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -892,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -921,7 +914,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -950,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -979,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -987,10 +980,10 @@
         <v>4007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1008,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1016,10 +1009,10 @@
         <v>4008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1037,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
